--- a/com.OnlineStore/eCommerceTest/DataFiles/OpenCartDataSource.xlsx
+++ b/com.OnlineStore/eCommerceTest/DataFiles/OpenCartDataSource.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="titleCheck" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="headers" sheetId="2" r:id="rId2"/>
+    <sheet name="itemSearch" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,12 +21,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>OpenCartPageTitle</t>
   </si>
   <si>
-    <t>OpenCart - Open Source Shopping Cart Solution</t>
+    <t>Your Store</t>
+  </si>
+  <si>
+    <t>DesktopTab</t>
+  </si>
+  <si>
+    <t>LaptopsAndNotebooksTab</t>
+  </si>
+  <si>
+    <t>ComponentsTab</t>
+  </si>
+  <si>
+    <t>TabletsTab</t>
+  </si>
+  <si>
+    <t>Laptops &amp; Notebooks</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Tablets</t>
+  </si>
+  <si>
+    <t>Desktops</t>
+  </si>
+  <si>
+    <t>CameraType</t>
+  </si>
+  <si>
+    <t>Canon EOS 5D</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>$98.00</t>
   </si>
 </sst>
 </file>
@@ -345,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,14 +406,81 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>